--- a/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/3_attributes.xlsx
+++ b/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/3_attributes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="906">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve">Code indicating the language of the text of this data attribute, coded by ISO 639-1 (2 alfa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LanguageCode</t>
   </si>
   <si>
     <t xml:space="preserve">GS1_TOTALQUANTITYOFNEXTLOWERLEVELTRADEITEM</t>
@@ -2842,18 +2845,17 @@
   </sheetPr>
   <dimension ref="A1:AE362"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7259259259259"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="8.44814814814815"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.0703703703704"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.8703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.44814814814815"/>
+    <col collapsed="false" hidden="true" max="13" min="6" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.44814814814815"/>
   </cols>
   <sheetData>
@@ -4251,9 +4253,7 @@
         <v>134</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>33</v>
       </c>
@@ -4267,6 +4267,9 @@
       <c r="O37" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="W37" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="X37" s="1" t="s">
         <v>35</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>36</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA37" s="1" t="s">
         <v>35</v>
@@ -4285,10 +4288,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -4298,7 +4301,7 @@
         <v>35</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>35</v>
@@ -4324,10 +4327,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -4337,11 +4340,11 @@
         <v>35</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>35</v>
@@ -4367,10 +4370,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40" s="1" t="s">
@@ -4380,7 +4383,7 @@
         <v>33</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>35</v>
@@ -4389,7 +4392,7 @@
         <v>35</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>64</v>
@@ -4403,21 +4406,21 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1"/>
       <c r="G41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>35</v>
@@ -4443,21 +4446,21 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" s="1"/>
       <c r="G42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>35</v>
@@ -4480,21 +4483,21 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>35</v>
@@ -4517,27 +4520,27 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1"/>
       <c r="G44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>35</v>
@@ -4546,7 +4549,7 @@
         <v>58</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA44" s="1" t="s">
         <v>35</v>
@@ -4557,23 +4560,24 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>35</v>
@@ -4582,7 +4586,7 @@
         <v>63</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA45" s="1" t="s">
         <v>35</v>
@@ -4593,17 +4597,17 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C46" s="1"/>
       <c r="G46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
@@ -4613,7 +4617,7 @@
         <v>35</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>35</v>
@@ -4622,7 +4626,7 @@
         <v>74</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA46" s="1" t="s">
         <v>35</v>
@@ -4633,15 +4637,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="G47" s="1" t="s">
         <v>33</v>
       </c>
@@ -4655,6 +4657,9 @@
       <c r="O47" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="W47" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="X47" s="1" t="s">
         <v>35</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>55</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA47" s="1" t="s">
         <v>35</v>
@@ -4673,17 +4678,17 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1"/>
       <c r="G48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
@@ -4693,7 +4698,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>35</v>
@@ -4713,10 +4718,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1"/>
       <c r="E49" s="1" t="s">
@@ -4726,7 +4731,7 @@
         <v>33</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
@@ -4753,17 +4758,17 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1"/>
       <c r="G50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
@@ -4773,7 +4778,7 @@
         <v>35</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>35</v>
@@ -4793,27 +4798,27 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1"/>
       <c r="G51" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>35</v>
@@ -4833,21 +4838,21 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C52" s="1"/>
       <c r="G52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>35</v>
@@ -4873,21 +4878,21 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" s="1"/>
       <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>35</v>
@@ -4913,10 +4918,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54" s="1" t="s">
@@ -4926,11 +4931,11 @@
         <v>33</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>35</v>
@@ -4953,21 +4958,21 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1"/>
       <c r="G55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>35</v>
@@ -4990,10 +4995,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1"/>
       <c r="G56" s="1" t="s">
@@ -5003,7 +5008,7 @@
         <v>35</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>35</v>
@@ -5029,10 +5034,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -5042,7 +5047,7 @@
         <v>35</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>35</v>
@@ -5068,10 +5073,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -5081,7 +5086,7 @@
         <v>35</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>35</v>
@@ -5107,10 +5112,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -5120,11 +5125,11 @@
         <v>35</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>35</v>
@@ -5150,10 +5155,10 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -5163,11 +5168,11 @@
         <v>35</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>35</v>
@@ -5193,10 +5198,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -5206,11 +5211,11 @@
         <v>35</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>35</v>
@@ -5236,10 +5241,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -5249,11 +5254,11 @@
         <v>35</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>35</v>
@@ -5279,10 +5284,10 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -5292,11 +5297,11 @@
         <v>35</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>35</v>
@@ -5322,10 +5327,10 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C64" s="1"/>
       <c r="E64" s="1" t="s">
@@ -5335,11 +5340,11 @@
         <v>33</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>35</v>
@@ -5348,7 +5353,7 @@
         <v>35</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>64</v>
@@ -5362,27 +5367,27 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1"/>
       <c r="G65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>35</v>
@@ -5391,7 +5396,7 @@
         <v>36</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA65" s="1" t="s">
         <v>35</v>
@@ -5402,27 +5407,27 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C66" s="1"/>
       <c r="G66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>35</v>
@@ -5431,7 +5436,7 @@
         <v>41</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA66" s="1" t="s">
         <v>35</v>
@@ -5442,10 +5447,10 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C67" s="1"/>
       <c r="G67" s="1" t="s">
@@ -5455,11 +5460,11 @@
         <v>35</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>35</v>
@@ -5485,17 +5490,17 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C68" s="1"/>
       <c r="G68" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>35</v>
@@ -5521,27 +5526,27 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C69" s="1"/>
       <c r="G69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>35</v>
@@ -5550,7 +5555,7 @@
         <v>35</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA69" s="1" t="s">
         <v>35</v>
@@ -5561,32 +5566,32 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C70" s="1"/>
       <c r="G70" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA70" s="1" t="s">
         <v>35</v>
@@ -5597,23 +5602,24 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="G71" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W71" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>35</v>
@@ -5622,7 +5628,7 @@
         <v>106</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA71" s="1" t="s">
         <v>35</v>
@@ -5633,23 +5639,24 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="G72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W72" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X72" s="1" t="s">
         <v>35</v>
@@ -5658,7 +5665,7 @@
         <v>74</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA72" s="1" t="s">
         <v>35</v>
@@ -5669,10 +5676,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73" s="1" t="s">
@@ -5682,7 +5689,7 @@
         <v>33</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>35</v>
@@ -5705,10 +5712,10 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C74" s="1"/>
       <c r="E74" s="1" t="s">
@@ -5718,7 +5725,7 @@
         <v>33</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>35</v>
@@ -5741,10 +5748,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75" s="1" t="s">
@@ -5754,7 +5761,7 @@
         <v>33</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>35</v>
@@ -5777,10 +5784,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" s="1" t="s">
@@ -5790,11 +5797,11 @@
         <v>33</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>35</v>
@@ -5817,10 +5824,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" s="1" t="s">
@@ -5830,7 +5837,7 @@
         <v>33</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>35</v>
@@ -5853,10 +5860,10 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -5866,11 +5873,11 @@
         <v>36</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>35</v>
@@ -5896,10 +5903,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -5909,7 +5916,7 @@
         <v>36</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>35</v>
@@ -5935,10 +5942,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -5948,11 +5955,11 @@
         <v>36</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>35</v>
@@ -5978,10 +5985,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -5991,11 +5998,11 @@
         <v>36</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>35</v>
@@ -6021,23 +6028,24 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="E82" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E82" s="1"/>
       <c r="G82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W82" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>35</v>
@@ -6046,7 +6054,7 @@
         <v>106</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA82" s="1" t="s">
         <v>35</v>
@@ -6057,17 +6065,17 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C83" s="1"/>
       <c r="G83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1" t="s">
@@ -6094,17 +6102,17 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C84" s="1"/>
       <c r="G84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1" t="s">
@@ -6131,17 +6139,17 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C85" s="1"/>
       <c r="G85" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1" t="s">
@@ -6168,10 +6176,10 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C86" s="1"/>
       <c r="E86" s="1" t="s">
@@ -6181,7 +6189,7 @@
         <v>33</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>35</v>
@@ -6204,23 +6212,23 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C87" s="1"/>
       <c r="G87" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>35</v>
@@ -6240,10 +6248,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -6253,11 +6261,11 @@
         <v>36</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>35</v>
@@ -6283,27 +6291,27 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C89" s="1"/>
       <c r="G89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X89" s="1" t="s">
         <v>35</v>
@@ -6323,21 +6331,21 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C90" s="1"/>
       <c r="G90" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>35</v>
@@ -6363,21 +6371,21 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C91" s="1"/>
       <c r="G91" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>35</v>
@@ -6403,10 +6411,10 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -6417,13 +6425,13 @@
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X92" s="1" t="s">
         <v>35</v>
@@ -6432,7 +6440,7 @@
         <v>60</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA92" s="1" t="s">
         <v>35</v>
@@ -6443,32 +6451,33 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="G93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="W93" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="X93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA93" s="1" t="s">
         <v>35</v>
@@ -6479,21 +6488,21 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C94" s="1"/>
       <c r="G94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>35</v>
@@ -6505,7 +6514,7 @@
         <v>35</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>42</v>
@@ -6519,21 +6528,21 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C95" s="1"/>
       <c r="G95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>35</v>
@@ -6545,7 +6554,7 @@
         <v>35</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z95" s="1" t="s">
         <v>42</v>
@@ -6559,23 +6568,23 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C96" s="1"/>
       <c r="G96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>35</v>
@@ -6595,29 +6604,29 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C97" s="1"/>
       <c r="G97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X97" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z97" s="1" t="s">
         <v>42</v>
@@ -6631,10 +6640,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98" s="1" t="s">
@@ -6644,11 +6653,11 @@
         <v>33</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>35</v>
@@ -6671,10 +6680,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" s="1"/>
@@ -6712,10 +6721,10 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -6726,13 +6735,13 @@
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X100" s="1" t="s">
         <v>35</v>
@@ -6752,10 +6761,10 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -6766,7 +6775,7 @@
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>35</v>
@@ -6792,27 +6801,27 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C102" s="1"/>
       <c r="G102" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X102" s="1" t="s">
         <v>35</v>
@@ -6832,21 +6841,21 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C103" s="1"/>
       <c r="G103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>35</v>
@@ -6872,27 +6881,27 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C104" s="1"/>
       <c r="G104" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X104" s="1" t="s">
         <v>35</v>
@@ -6901,7 +6910,7 @@
         <v>74</v>
       </c>
       <c r="Z104" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA104" s="1" t="s">
         <v>35</v>
@@ -6912,10 +6921,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -6926,13 +6935,13 @@
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X105" s="1" t="s">
         <v>35</v>
@@ -6952,21 +6961,21 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C106" s="1"/>
       <c r="G106" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>35</v>
@@ -6992,27 +7001,27 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C107" s="1"/>
       <c r="G107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X107" s="1" t="s">
         <v>35</v>
@@ -7021,7 +7030,7 @@
         <v>63</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA107" s="1" t="s">
         <v>35</v>
@@ -7032,10 +7041,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C108" s="1"/>
       <c r="G108" s="1" t="s">
@@ -7045,11 +7054,11 @@
         <v>36</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>35</v>
@@ -7075,10 +7084,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C109" s="1"/>
       <c r="E109" s="1" t="s">
@@ -7088,7 +7097,7 @@
         <v>33</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>35</v>
@@ -7111,10 +7120,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C110" s="1"/>
       <c r="G110" s="1" t="s">
@@ -7124,11 +7133,11 @@
         <v>36</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>35</v>
@@ -7154,10 +7163,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" s="1" t="s">
@@ -7167,7 +7176,7 @@
         <v>33</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>35</v>
@@ -7190,10 +7199,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C112" s="1"/>
       <c r="G112" s="1" t="s">
@@ -7203,11 +7212,11 @@
         <v>36</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>35</v>
@@ -7233,10 +7242,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C113" s="1"/>
       <c r="E113" s="1" t="s">
@@ -7246,7 +7255,7 @@
         <v>33</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>35</v>
@@ -7269,10 +7278,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C114" s="1"/>
       <c r="G114" s="1" t="s">
@@ -7282,11 +7291,11 @@
         <v>36</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>35</v>
@@ -7312,10 +7321,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -7325,7 +7334,7 @@
         <v>33</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>35</v>
@@ -7348,10 +7357,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -7361,11 +7370,11 @@
         <v>33</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>35</v>
@@ -7374,7 +7383,7 @@
         <v>35</v>
       </c>
       <c r="Y116" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z116" s="1" t="s">
         <v>64</v>
@@ -7388,27 +7397,27 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C117" s="1"/>
       <c r="G117" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X117" s="1" t="s">
         <v>35</v>
@@ -7417,7 +7426,7 @@
         <v>45</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA117" s="1" t="s">
         <v>35</v>
@@ -7428,23 +7437,24 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N118" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="E118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="O118" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W118" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X118" s="1" t="s">
         <v>35</v>
@@ -7453,7 +7463,7 @@
         <v>48</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA118" s="1" t="s">
         <v>35</v>
@@ -7464,10 +7474,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C119" s="1"/>
       <c r="E119" s="1" t="s">
@@ -7477,11 +7487,11 @@
         <v>33</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>35</v>
@@ -7504,17 +7514,17 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C120" s="1"/>
       <c r="G120" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1" t="s">
@@ -7524,7 +7534,7 @@
         <v>35</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X120" s="1" t="s">
         <v>35</v>
@@ -7544,15 +7554,13 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="E121" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E121" s="1"/>
       <c r="G121" s="1" t="s">
         <v>33</v>
       </c>
@@ -7566,6 +7574,9 @@
       <c r="O121" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="W121" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="X121" s="1" t="s">
         <v>35</v>
       </c>
@@ -7573,7 +7584,7 @@
         <v>55</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA121" s="1" t="s">
         <v>35</v>
@@ -7584,17 +7595,17 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C122" s="1"/>
       <c r="G122" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1" t="s">
@@ -7621,17 +7632,17 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C123" s="1"/>
       <c r="G123" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1" t="s">
@@ -7641,7 +7652,7 @@
         <v>35</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X123" s="1" t="s">
         <v>35</v>
@@ -7661,15 +7672,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="E124" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E124" s="1"/>
       <c r="G124" s="1" t="s">
         <v>33</v>
       </c>
@@ -7683,6 +7692,9 @@
       <c r="O124" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="W124" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="X124" s="1" t="s">
         <v>35</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>41</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA124" s="1" t="s">
         <v>35</v>
@@ -7701,10 +7713,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C125" s="1"/>
       <c r="G125" s="1" t="s">
@@ -7714,11 +7726,11 @@
         <v>36</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>35</v>
@@ -7744,10 +7756,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" s="1" t="s">
@@ -7757,7 +7769,7 @@
         <v>33</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>35</v>
@@ -7780,10 +7792,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" s="1" t="s">
@@ -7793,11 +7805,11 @@
         <v>33</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>35</v>
@@ -7820,21 +7832,21 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C128" s="1"/>
       <c r="G128" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>35</v>
@@ -7860,27 +7872,27 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C129" s="1"/>
       <c r="G129" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X129" s="1" t="s">
         <v>35</v>
@@ -7889,7 +7901,7 @@
         <v>36</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA129" s="1" t="s">
         <v>35</v>
@@ -7900,27 +7912,27 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C130" s="1"/>
       <c r="G130" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X130" s="1" t="s">
         <v>35</v>
@@ -7929,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA130" s="1" t="s">
         <v>35</v>
@@ -7940,23 +7952,24 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="E131" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E131" s="1"/>
       <c r="G131" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W131" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X131" s="1" t="s">
         <v>35</v>
@@ -7965,7 +7978,7 @@
         <v>74</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA131" s="1" t="s">
         <v>35</v>
@@ -7976,10 +7989,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C132" s="1"/>
       <c r="G132" s="1" t="s">
@@ -7990,7 +8003,7 @@
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>35</v>
@@ -8016,21 +8029,21 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C133" s="1"/>
       <c r="G133" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>35</v>
@@ -8056,27 +8069,27 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C134" s="1"/>
       <c r="G134" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X134" s="1" t="s">
         <v>35</v>
@@ -8096,27 +8109,27 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C135" s="1"/>
       <c r="G135" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X135" s="1" t="s">
         <v>35</v>
@@ -8125,7 +8138,7 @@
         <v>74</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA135" s="1" t="s">
         <v>35</v>
@@ -8136,23 +8149,24 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C136" s="1"/>
-      <c r="E136" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E136" s="1"/>
       <c r="G136" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="W136" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="X136" s="1" t="s">
         <v>35</v>
@@ -8161,7 +8175,7 @@
         <v>55</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="AA136" s="1" t="s">
         <v>35</v>
@@ -8172,10 +8186,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" s="1" t="s">
@@ -8185,7 +8199,7 @@
         <v>33</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1" t="s">
@@ -8215,10 +8229,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -8228,7 +8242,7 @@
         <v>33</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1" t="s">
@@ -8258,10 +8272,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -8271,7 +8285,7 @@
         <v>33</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1" t="s">
@@ -8298,21 +8312,21 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C140" s="1"/>
       <c r="G140" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>35</v>
@@ -8335,10 +8349,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141" s="1" t="s">
@@ -8348,7 +8362,7 @@
         <v>33</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>35</v>
@@ -8371,21 +8385,21 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C142" s="1"/>
       <c r="G142" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>35</v>
@@ -8408,21 +8422,21 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C143" s="1"/>
       <c r="G143" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>35</v>
@@ -8445,21 +8459,21 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C144" s="1"/>
       <c r="G144" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M144" s="1"/>
       <c r="N144" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>35</v>
@@ -8482,21 +8496,21 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C145" s="1"/>
       <c r="G145" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M145" s="1"/>
       <c r="N145" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>35</v>
@@ -8519,21 +8533,21 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C146" s="1"/>
       <c r="G146" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>35</v>
@@ -8556,17 +8570,17 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C147" s="1"/>
       <c r="G147" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1" t="s">
@@ -8593,10 +8607,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C148" s="1"/>
       <c r="G148" s="1" t="s">
@@ -8607,7 +8621,7 @@
       </c>
       <c r="M148" s="1"/>
       <c r="N148" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>35</v>
@@ -8630,21 +8644,21 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C149" s="1"/>
       <c r="G149" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M149" s="1"/>
       <c r="N149" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>35</v>
@@ -8667,17 +8681,17 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C150" s="1"/>
       <c r="G150" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M150" s="1"/>
       <c r="N150" s="1" t="s">
@@ -8704,10 +8718,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C151" s="1"/>
       <c r="G151" s="1" t="s">
@@ -8717,10 +8731,10 @@
         <v>36</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M151" s="1"/>
       <c r="N151" s="1" t="s">
@@ -8730,7 +8744,7 @@
         <v>35</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T151" s="1" t="s">
         <v>36</v>
@@ -8742,7 +8756,7 @@
         <v>106</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA151" s="1" t="s">
         <v>35</v>
@@ -8753,10 +8767,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C152" s="1"/>
       <c r="G152" s="1" t="s">
@@ -8766,10 +8780,10 @@
         <v>36</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
@@ -8779,7 +8793,7 @@
         <v>35</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T152" s="1" t="s">
         <v>36</v>
@@ -8791,7 +8805,7 @@
         <v>41</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA152" s="1" t="s">
         <v>35</v>
@@ -8802,10 +8816,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C153" s="1"/>
       <c r="G153" s="1" t="s">
@@ -8815,10 +8829,10 @@
         <v>36</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M153" s="1"/>
       <c r="N153" s="1" t="s">
@@ -8828,7 +8842,7 @@
         <v>35</v>
       </c>
       <c r="R153" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="T153" s="1" t="s">
         <v>36</v>
@@ -8840,7 +8854,7 @@
         <v>50</v>
       </c>
       <c r="Z153" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA153" s="1" t="s">
         <v>35</v>
@@ -8851,10 +8865,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C154" s="1"/>
       <c r="G154" s="1" t="s">
@@ -8864,10 +8878,10 @@
         <v>36</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M154" s="1"/>
       <c r="N154" s="1" t="s">
@@ -8877,7 +8891,7 @@
         <v>35</v>
       </c>
       <c r="R154" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T154" s="1" t="s">
         <v>36</v>
@@ -8889,7 +8903,7 @@
         <v>63</v>
       </c>
       <c r="Z154" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA154" s="1" t="s">
         <v>35</v>
@@ -8900,10 +8914,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C155" s="1"/>
       <c r="G155" s="1" t="s">
@@ -8913,10 +8927,10 @@
         <v>36</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M155" s="1"/>
       <c r="N155" s="1" t="s">
@@ -8926,7 +8940,7 @@
         <v>35</v>
       </c>
       <c r="R155" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T155" s="1" t="s">
         <v>36</v>
@@ -8938,7 +8952,7 @@
         <v>45</v>
       </c>
       <c r="Z155" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA155" s="1" t="s">
         <v>35</v>
@@ -8949,10 +8963,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C156" s="1"/>
       <c r="G156" s="1" t="s">
@@ -8962,10 +8976,10 @@
         <v>36</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M156" s="1"/>
       <c r="N156" s="1" t="s">
@@ -8975,7 +8989,7 @@
         <v>35</v>
       </c>
       <c r="R156" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T156" s="1" t="s">
         <v>36</v>
@@ -8987,7 +9001,7 @@
         <v>53</v>
       </c>
       <c r="Z156" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA156" s="1" t="s">
         <v>35</v>
@@ -8998,10 +9012,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C157" s="1"/>
       <c r="E157" s="1" t="s">
@@ -9011,7 +9025,7 @@
         <v>33</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M157" s="1"/>
       <c r="N157" s="1" t="s">
@@ -9038,10 +9052,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C158" s="1"/>
       <c r="G158" s="1" t="s">
@@ -9051,10 +9065,10 @@
         <v>36</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M158" s="1"/>
       <c r="N158" s="1" t="s">
@@ -9064,7 +9078,7 @@
         <v>35</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T158" s="1" t="s">
         <v>36</v>
@@ -9076,7 +9090,7 @@
         <v>48</v>
       </c>
       <c r="Z158" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA158" s="1" t="s">
         <v>35</v>
@@ -9087,17 +9101,17 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C159" s="1"/>
       <c r="G159" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>35</v>
@@ -9120,17 +9134,17 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C160" s="1"/>
       <c r="G160" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>35</v>
@@ -9153,17 +9167,17 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C161" s="1"/>
       <c r="G161" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>35</v>
@@ -9186,17 +9200,17 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C162" s="1"/>
       <c r="G162" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>35</v>
@@ -9219,17 +9233,17 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C163" s="1"/>
       <c r="G163" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>35</v>
@@ -9252,17 +9266,17 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C164" s="1"/>
       <c r="G164" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>35</v>
@@ -9285,17 +9299,17 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C165" s="1"/>
       <c r="G165" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>35</v>
@@ -9318,17 +9332,17 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C166" s="1"/>
       <c r="G166" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>35</v>
@@ -9351,17 +9365,17 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C167" s="1"/>
       <c r="G167" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>35</v>
@@ -9384,17 +9398,17 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C168" s="1"/>
       <c r="G168" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>35</v>
@@ -9417,17 +9431,17 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C169" s="1"/>
       <c r="G169" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>35</v>
@@ -9450,17 +9464,17 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C170" s="1"/>
       <c r="G170" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>35</v>
@@ -9483,10 +9497,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C171" s="1"/>
       <c r="G171" s="1" t="s">
@@ -9496,7 +9510,7 @@
         <v>35</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>35</v>
@@ -9522,17 +9536,17 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C172" s="1"/>
       <c r="G172" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>35</v>
@@ -9555,17 +9569,17 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C173" s="1"/>
       <c r="G173" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>35</v>
@@ -9588,10 +9602,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C174" s="1"/>
       <c r="E174" s="1" t="s">
@@ -9601,7 +9615,7 @@
         <v>33</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>35</v>
@@ -9624,17 +9638,17 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C175" s="1"/>
       <c r="G175" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>35</v>
@@ -9657,17 +9671,17 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C176" s="1"/>
       <c r="G176" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>35</v>
@@ -9690,17 +9704,17 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C177" s="1"/>
       <c r="G177" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>35</v>
@@ -9723,17 +9737,17 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C178" s="1"/>
       <c r="G178" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>35</v>
@@ -9756,17 +9770,17 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C179" s="1"/>
       <c r="G179" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>35</v>
@@ -9789,17 +9803,17 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C180" s="1"/>
       <c r="G180" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>35</v>
@@ -9822,17 +9836,17 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C181" s="1"/>
       <c r="G181" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>35</v>
@@ -9855,17 +9869,17 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C182" s="1"/>
       <c r="G182" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>35</v>
@@ -9888,17 +9902,17 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C183" s="1"/>
       <c r="G183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>35</v>
@@ -9921,17 +9935,17 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C184" s="1"/>
       <c r="G184" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>35</v>
@@ -9954,17 +9968,17 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C185" s="1"/>
       <c r="G185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>35</v>
@@ -9987,17 +10001,17 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C186" s="1"/>
       <c r="G186" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>35</v>
@@ -10020,17 +10034,17 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C187" s="1"/>
       <c r="G187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>35</v>
@@ -10053,17 +10067,17 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C188" s="1"/>
       <c r="G188" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>35</v>
@@ -10086,17 +10100,17 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C189" s="1"/>
       <c r="G189" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>35</v>
@@ -10119,17 +10133,17 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C190" s="1"/>
       <c r="G190" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>35</v>
@@ -10152,17 +10166,17 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C191" s="1"/>
       <c r="G191" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>35</v>
@@ -10185,17 +10199,17 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C192" s="1"/>
       <c r="G192" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>35</v>
@@ -10218,17 +10232,17 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C193" s="1"/>
       <c r="G193" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>35</v>
@@ -10251,17 +10265,17 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C194" s="1"/>
       <c r="G194" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>35</v>
@@ -10284,17 +10298,17 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C195" s="1"/>
       <c r="G195" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>35</v>
@@ -10317,17 +10331,17 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C196" s="1"/>
       <c r="G196" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>35</v>
@@ -10350,17 +10364,17 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C197" s="1"/>
       <c r="G197" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>35</v>
@@ -10383,17 +10397,17 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C198" s="1"/>
       <c r="G198" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>35</v>
@@ -10416,17 +10430,17 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C199" s="1"/>
       <c r="G199" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>35</v>
@@ -10449,17 +10463,17 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C200" s="1"/>
       <c r="G200" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>35</v>
@@ -10482,17 +10496,17 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C201" s="1"/>
       <c r="G201" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>35</v>
@@ -10515,17 +10529,17 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C202" s="1"/>
       <c r="G202" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>35</v>
@@ -10548,17 +10562,17 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C203" s="1"/>
       <c r="G203" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>35</v>
@@ -10581,17 +10595,17 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C204" s="1"/>
       <c r="G204" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>35</v>
@@ -10614,17 +10628,17 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C205" s="1"/>
       <c r="G205" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>35</v>
@@ -10647,17 +10661,17 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C206" s="1"/>
       <c r="G206" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>35</v>
@@ -10680,17 +10694,17 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C207" s="1"/>
       <c r="G207" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>35</v>
@@ -10713,17 +10727,17 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C208" s="1"/>
       <c r="G208" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>35</v>
@@ -10746,17 +10760,17 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C209" s="1"/>
       <c r="G209" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>35</v>
@@ -10779,17 +10793,17 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C210" s="1"/>
       <c r="G210" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>35</v>
@@ -10812,17 +10826,17 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C211" s="1"/>
       <c r="G211" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>35</v>
@@ -10845,17 +10859,17 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C212" s="1"/>
       <c r="G212" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>35</v>
@@ -10878,17 +10892,17 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C213" s="1"/>
       <c r="G213" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>35</v>
@@ -10911,17 +10925,17 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C214" s="1"/>
       <c r="G214" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>35</v>
@@ -10944,17 +10958,17 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C215" s="1"/>
       <c r="G215" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>35</v>
@@ -10977,17 +10991,17 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C216" s="1"/>
       <c r="G216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>35</v>
@@ -11010,17 +11024,17 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C217" s="1"/>
       <c r="G217" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>35</v>
@@ -11043,17 +11057,17 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C218" s="1"/>
       <c r="G218" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>35</v>
@@ -11076,17 +11090,17 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C219" s="1"/>
       <c r="G219" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>35</v>
@@ -11109,17 +11123,17 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C220" s="1"/>
       <c r="G220" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>35</v>
@@ -11142,17 +11156,17 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C221" s="1"/>
       <c r="G221" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>35</v>
@@ -11175,17 +11189,17 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C222" s="1"/>
       <c r="G222" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>35</v>
@@ -11208,17 +11222,17 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C223" s="1"/>
       <c r="G223" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>35</v>
@@ -11241,17 +11255,17 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C224" s="1"/>
       <c r="G224" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>35</v>
@@ -11274,17 +11288,17 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C225" s="1"/>
       <c r="G225" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>35</v>
@@ -11307,17 +11321,17 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C226" s="1"/>
       <c r="G226" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>35</v>
@@ -11340,17 +11354,17 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C227" s="1"/>
       <c r="G227" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>35</v>
@@ -11373,17 +11387,17 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C228" s="1"/>
       <c r="G228" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>35</v>
@@ -11406,17 +11420,17 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C229" s="1"/>
       <c r="G229" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>35</v>
@@ -11439,17 +11453,17 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C230" s="1"/>
       <c r="G230" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>35</v>
@@ -11472,17 +11486,17 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C231" s="1"/>
       <c r="G231" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>35</v>
@@ -11505,17 +11519,17 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C232" s="1"/>
       <c r="G232" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>35</v>
@@ -11538,17 +11552,17 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C233" s="1"/>
       <c r="G233" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>35</v>
@@ -11571,17 +11585,17 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C234" s="1"/>
       <c r="G234" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>35</v>
@@ -11604,17 +11618,17 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C235" s="1"/>
       <c r="G235" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>35</v>
@@ -11637,17 +11651,17 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C236" s="1"/>
       <c r="G236" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>35</v>
@@ -11670,17 +11684,17 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C237" s="1"/>
       <c r="G237" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>35</v>
@@ -11703,17 +11717,17 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C238" s="1"/>
       <c r="G238" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>35</v>
@@ -11736,17 +11750,17 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C239" s="1"/>
       <c r="G239" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>35</v>
@@ -11769,17 +11783,17 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C240" s="1"/>
       <c r="G240" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>35</v>
@@ -11802,10 +11816,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C241" s="1"/>
       <c r="G241" s="1" t="s">
@@ -11815,7 +11829,7 @@
         <v>35</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>35</v>
@@ -11841,17 +11855,17 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C242" s="1"/>
       <c r="G242" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>35</v>
@@ -11874,17 +11888,17 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C243" s="1"/>
       <c r="G243" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>35</v>
@@ -11907,17 +11921,17 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C244" s="1"/>
       <c r="G244" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>35</v>
@@ -11940,10 +11954,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C245" s="1"/>
       <c r="G245" s="1" t="s">
@@ -11953,7 +11967,7 @@
         <v>35</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>35</v>
@@ -11979,10 +11993,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C246" s="1"/>
       <c r="G246" s="1" t="s">
@@ -11992,7 +12006,7 @@
         <v>35</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>35</v>
@@ -12018,10 +12032,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C247" s="1"/>
       <c r="G247" s="1" t="s">
@@ -12031,7 +12045,7 @@
         <v>35</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>35</v>
@@ -12057,17 +12071,17 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C248" s="1"/>
       <c r="G248" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>35</v>
@@ -12090,10 +12104,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C249" s="1"/>
       <c r="G249" s="1" t="s">
@@ -12103,7 +12117,7 @@
         <v>35</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>35</v>
@@ -12115,7 +12129,7 @@
         <v>35</v>
       </c>
       <c r="Y249" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z249" s="1" t="s">
         <v>75</v>
@@ -12129,10 +12143,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C250" s="1"/>
       <c r="G250" s="1" t="s">
@@ -12142,7 +12156,7 @@
         <v>35</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>35</v>
@@ -12154,7 +12168,7 @@
         <v>35</v>
       </c>
       <c r="Y250" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z250" s="1" t="s">
         <v>75</v>
@@ -12168,10 +12182,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C251" s="1"/>
       <c r="G251" s="1" t="s">
@@ -12181,7 +12195,7 @@
         <v>35</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>35</v>
@@ -12193,7 +12207,7 @@
         <v>35</v>
       </c>
       <c r="Y251" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z251" s="1" t="s">
         <v>75</v>
@@ -12207,17 +12221,17 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C252" s="1"/>
       <c r="G252" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>35</v>
@@ -12240,17 +12254,17 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C253" s="1"/>
       <c r="G253" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>35</v>
@@ -12273,17 +12287,17 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C254" s="1"/>
       <c r="G254" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>35</v>
@@ -12306,17 +12320,17 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C255" s="1"/>
       <c r="G255" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>35</v>
@@ -12339,17 +12353,17 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C256" s="1"/>
       <c r="G256" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>35</v>
@@ -12372,17 +12386,17 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C257" s="1"/>
       <c r="G257" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>35</v>
@@ -12405,17 +12419,17 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C258" s="1"/>
       <c r="G258" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>35</v>
@@ -12438,17 +12452,17 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C259" s="1"/>
       <c r="G259" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>35</v>
@@ -12471,17 +12485,17 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C260" s="1"/>
       <c r="G260" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>35</v>
@@ -12504,17 +12518,17 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C261" s="1"/>
       <c r="G261" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>35</v>
@@ -12537,17 +12551,17 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C262" s="1"/>
       <c r="G262" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>35</v>
@@ -12570,17 +12584,17 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C263" s="1"/>
       <c r="G263" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>35</v>
@@ -12603,17 +12617,17 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C264" s="1"/>
       <c r="G264" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>35</v>
@@ -12636,17 +12650,17 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C265" s="1"/>
       <c r="G265" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>35</v>
@@ -12669,17 +12683,17 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C266" s="1"/>
       <c r="G266" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>35</v>
@@ -12702,17 +12716,17 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C267" s="1"/>
       <c r="G267" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>35</v>
@@ -12735,17 +12749,17 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C268" s="1"/>
       <c r="G268" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>35</v>
@@ -12754,7 +12768,7 @@
         <v>35</v>
       </c>
       <c r="Y268" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z268" s="1" t="s">
         <v>42</v>
@@ -12768,17 +12782,17 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C269" s="1"/>
       <c r="G269" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>35</v>
@@ -12787,7 +12801,7 @@
         <v>35</v>
       </c>
       <c r="Y269" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Z269" s="1" t="s">
         <v>42</v>
@@ -12801,17 +12815,17 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C270" s="1"/>
       <c r="G270" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>35</v>
@@ -12820,7 +12834,7 @@
         <v>35</v>
       </c>
       <c r="Y270" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z270" s="1" t="s">
         <v>42</v>
@@ -12834,17 +12848,17 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C271" s="1"/>
       <c r="G271" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>35</v>
@@ -12867,17 +12881,17 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C272" s="1"/>
       <c r="G272" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>35</v>
@@ -12900,17 +12914,17 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C273" s="1"/>
       <c r="G273" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>35</v>
@@ -12933,17 +12947,17 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C274" s="1"/>
       <c r="G274" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>35</v>
@@ -12966,17 +12980,17 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C275" s="1"/>
       <c r="G275" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>35</v>
@@ -12999,17 +13013,17 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C276" s="1"/>
       <c r="G276" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>35</v>
@@ -13032,17 +13046,17 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C277" s="1"/>
       <c r="G277" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>35</v>
@@ -13065,17 +13079,17 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C278" s="1"/>
       <c r="G278" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>35</v>
@@ -13098,17 +13112,17 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C279" s="1"/>
       <c r="G279" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>35</v>
@@ -13131,17 +13145,17 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C280" s="1"/>
       <c r="G280" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>35</v>
@@ -13164,17 +13178,17 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C281" s="1"/>
       <c r="G281" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>35</v>
@@ -13197,17 +13211,17 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C282" s="1"/>
       <c r="G282" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>35</v>
@@ -13230,10 +13244,10 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C283" s="1"/>
       <c r="G283" s="1" t="s">
@@ -13243,7 +13257,7 @@
         <v>35</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>35</v>
@@ -13269,10 +13283,10 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C284" s="1"/>
       <c r="G284" s="1" t="s">
@@ -13282,7 +13296,7 @@
         <v>35</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>35</v>
@@ -13308,10 +13322,10 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C285" s="1"/>
       <c r="G285" s="1" t="s">
@@ -13321,7 +13335,7 @@
         <v>35</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>35</v>
@@ -13347,10 +13361,10 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C286" s="1"/>
       <c r="G286" s="1" t="s">
@@ -13360,7 +13374,7 @@
         <v>35</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>35</v>
@@ -13386,10 +13400,10 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C287" s="1"/>
       <c r="G287" s="1" t="s">
@@ -13399,7 +13413,7 @@
         <v>35</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>35</v>
@@ -13425,10 +13439,10 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C288" s="1"/>
       <c r="G288" s="1" t="s">
@@ -13438,7 +13452,7 @@
         <v>35</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>35</v>
@@ -13464,10 +13478,10 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C289" s="1"/>
       <c r="G289" s="1" t="s">
@@ -13480,7 +13494,7 @@
         <v>35</v>
       </c>
       <c r="P289" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X289" s="1" t="s">
         <v>35</v>
@@ -13500,10 +13514,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C290" s="1"/>
       <c r="G290" s="1" t="s">
@@ -13533,17 +13547,17 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C291" s="1"/>
       <c r="G291" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O291" s="1" t="s">
         <v>35</v>
@@ -13566,17 +13580,17 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C292" s="1"/>
       <c r="G292" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O292" s="1" t="s">
         <v>35</v>
@@ -13599,17 +13613,17 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C293" s="1"/>
       <c r="G293" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O293" s="1" t="s">
         <v>35</v>
@@ -13632,17 +13646,17 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C294" s="1"/>
       <c r="G294" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O294" s="1" t="s">
         <v>35</v>
@@ -13665,17 +13679,17 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C295" s="1"/>
       <c r="G295" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O295" s="1" t="s">
         <v>35</v>
@@ -13698,17 +13712,17 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C296" s="1"/>
       <c r="G296" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O296" s="1" t="s">
         <v>35</v>
@@ -13731,17 +13745,17 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C297" s="1"/>
       <c r="G297" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O297" s="1" t="s">
         <v>35</v>
@@ -13764,17 +13778,17 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C298" s="1"/>
       <c r="G298" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O298" s="1" t="s">
         <v>35</v>
@@ -13797,17 +13811,17 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C299" s="1"/>
       <c r="G299" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O299" s="1" t="s">
         <v>35</v>
@@ -13830,17 +13844,17 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C300" s="1"/>
       <c r="G300" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O300" s="1" t="s">
         <v>35</v>
@@ -13863,17 +13877,17 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C301" s="1"/>
       <c r="G301" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O301" s="1" t="s">
         <v>35</v>
@@ -13896,17 +13910,17 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C302" s="1"/>
       <c r="G302" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O302" s="1" t="s">
         <v>35</v>
@@ -13929,17 +13943,17 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C303" s="1"/>
       <c r="G303" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O303" s="1" t="s">
         <v>35</v>
@@ -13962,17 +13976,17 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C304" s="1"/>
       <c r="G304" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O304" s="1" t="s">
         <v>35</v>
@@ -13995,17 +14009,17 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C305" s="1"/>
       <c r="G305" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N305" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O305" s="1" t="s">
         <v>35</v>
@@ -14028,17 +14042,17 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C306" s="1"/>
       <c r="G306" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O306" s="1" t="s">
         <v>35</v>
@@ -14061,17 +14075,17 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C307" s="1"/>
       <c r="G307" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N307" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O307" s="1" t="s">
         <v>35</v>
@@ -14094,17 +14108,17 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C308" s="1"/>
       <c r="G308" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N308" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O308" s="1" t="s">
         <v>35</v>
@@ -14127,17 +14141,17 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C309" s="1"/>
       <c r="G309" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N309" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O309" s="1" t="s">
         <v>35</v>
@@ -14160,17 +14174,17 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C310" s="1"/>
       <c r="G310" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O310" s="1" t="s">
         <v>35</v>
@@ -14193,17 +14207,17 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C311" s="1"/>
       <c r="G311" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O311" s="1" t="s">
         <v>35</v>
@@ -14226,17 +14240,17 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C312" s="1"/>
       <c r="G312" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O312" s="1" t="s">
         <v>35</v>
@@ -14259,17 +14273,17 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C313" s="1"/>
       <c r="G313" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O313" s="1" t="s">
         <v>35</v>
@@ -14292,17 +14306,17 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C314" s="1"/>
       <c r="G314" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O314" s="1" t="s">
         <v>35</v>
@@ -14325,17 +14339,17 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C315" s="1"/>
       <c r="G315" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O315" s="1" t="s">
         <v>35</v>
@@ -14358,17 +14372,17 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C316" s="1"/>
       <c r="G316" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N316" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O316" s="1" t="s">
         <v>35</v>
@@ -14391,17 +14405,17 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C317" s="1"/>
       <c r="G317" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N317" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O317" s="1" t="s">
         <v>35</v>
@@ -14424,17 +14438,17 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C318" s="1"/>
       <c r="G318" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N318" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O318" s="1" t="s">
         <v>35</v>
@@ -14457,17 +14471,17 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C319" s="1"/>
       <c r="G319" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N319" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O319" s="1" t="s">
         <v>35</v>
@@ -14490,17 +14504,17 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C320" s="1"/>
       <c r="G320" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O320" s="1" t="s">
         <v>35</v>
@@ -14523,17 +14537,17 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C321" s="1"/>
       <c r="G321" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O321" s="1" t="s">
         <v>35</v>
@@ -14556,17 +14570,17 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C322" s="1"/>
       <c r="G322" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N322" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O322" s="1" t="s">
         <v>35</v>
@@ -14589,17 +14603,17 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C323" s="1"/>
       <c r="G323" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O323" s="1" t="s">
         <v>35</v>
@@ -14622,17 +14636,17 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C324" s="1"/>
       <c r="G324" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O324" s="1" t="s">
         <v>35</v>
@@ -14655,17 +14669,17 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C325" s="1"/>
       <c r="G325" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O325" s="1" t="s">
         <v>35</v>
@@ -14688,10 +14702,10 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C326" s="1"/>
       <c r="G326" s="1" t="s">
@@ -14701,7 +14715,7 @@
         <v>36</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O326" s="1" t="s">
         <v>35</v>
@@ -14727,17 +14741,17 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C327" s="1"/>
       <c r="G327" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N327" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O327" s="1" t="s">
         <v>35</v>
@@ -14760,10 +14774,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C328" s="1"/>
       <c r="G328" s="1" t="s">
@@ -14773,7 +14787,7 @@
         <v>35</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O328" s="1" t="s">
         <v>35</v>
@@ -14799,10 +14813,10 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C329" s="1"/>
       <c r="G329" s="1" t="s">
@@ -14812,7 +14826,7 @@
         <v>36</v>
       </c>
       <c r="N329" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O329" s="1" t="s">
         <v>35</v>
@@ -14838,10 +14852,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C330" s="1"/>
       <c r="G330" s="1" t="s">
@@ -14851,7 +14865,7 @@
         <v>36</v>
       </c>
       <c r="N330" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O330" s="1" t="s">
         <v>35</v>
@@ -14877,10 +14891,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C331" s="1"/>
       <c r="G331" s="1" t="s">
@@ -14890,7 +14904,7 @@
         <v>36</v>
       </c>
       <c r="N331" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O331" s="1" t="s">
         <v>35</v>
@@ -14916,10 +14930,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C332" s="1"/>
       <c r="G332" s="1" t="s">
@@ -14929,7 +14943,7 @@
         <v>35</v>
       </c>
       <c r="N332" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O332" s="1" t="s">
         <v>35</v>
@@ -14955,17 +14969,17 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C333" s="1"/>
       <c r="G333" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N333" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O333" s="1" t="s">
         <v>35</v>
@@ -14988,17 +15002,17 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C334" s="1"/>
       <c r="G334" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N334" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O334" s="1" t="s">
         <v>35</v>
@@ -15021,17 +15035,17 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C335" s="1"/>
       <c r="G335" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N335" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O335" s="1" t="s">
         <v>35</v>
@@ -15054,17 +15068,17 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C336" s="1"/>
       <c r="G336" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N336" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O336" s="1" t="s">
         <v>35</v>
@@ -15087,17 +15101,17 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C337" s="1"/>
       <c r="G337" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>35</v>
@@ -15120,17 +15134,17 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C338" s="1"/>
       <c r="G338" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N338" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O338" s="1" t="s">
         <v>35</v>
@@ -15153,17 +15167,17 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C339" s="1"/>
       <c r="G339" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N339" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O339" s="1" t="s">
         <v>35</v>
@@ -15186,17 +15200,17 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C340" s="1"/>
       <c r="G340" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M340" s="1"/>
       <c r="N340" s="1" t="s">
@@ -15223,17 +15237,17 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C341" s="1"/>
       <c r="G341" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M341" s="1"/>
       <c r="N341" s="1" t="s">
@@ -15260,10 +15274,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C342" s="1"/>
       <c r="G342" s="1" t="s">
@@ -15273,7 +15287,7 @@
         <v>36</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M342" s="1"/>
       <c r="N342" s="1" t="s">
@@ -15303,10 +15317,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C343" s="1"/>
       <c r="G343" s="1" t="s">
@@ -15316,7 +15330,7 @@
         <v>36</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M343" s="1"/>
       <c r="N343" s="1" t="s">
@@ -15346,17 +15360,17 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C344" s="1"/>
       <c r="G344" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N344" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O344" s="1" t="s">
         <v>35</v>
@@ -15379,17 +15393,17 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C345" s="1"/>
       <c r="G345" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N345" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O345" s="1" t="s">
         <v>35</v>
@@ -15412,17 +15426,17 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C346" s="1"/>
       <c r="G346" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N346" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O346" s="1" t="s">
         <v>35</v>
@@ -15445,17 +15459,17 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C347" s="1"/>
       <c r="G347" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1" t="s">
@@ -15482,17 +15496,17 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C348" s="1"/>
       <c r="G348" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M348" s="1"/>
       <c r="N348" s="1" t="s">
@@ -15519,10 +15533,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C349" s="1"/>
       <c r="G349" s="1" t="s">
@@ -15532,20 +15546,20 @@
         <v>36</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M349" s="1"/>
       <c r="N349" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O349" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R349" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T349" s="1" t="s">
         <v>35</v>
@@ -15557,7 +15571,7 @@
         <v>35</v>
       </c>
       <c r="Z349" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA349" s="1" t="s">
         <v>35</v>
@@ -15568,21 +15582,21 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C350" s="1"/>
       <c r="G350" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M350" s="1"/>
       <c r="N350" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O350" s="1" t="s">
         <v>35</v>
@@ -15605,10 +15619,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C351" s="1"/>
       <c r="G351" s="1" t="s">
@@ -15638,10 +15652,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C352" s="1"/>
       <c r="G352" s="1" t="s">
@@ -15651,20 +15665,20 @@
         <v>36</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M352" s="1"/>
       <c r="N352" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O352" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R352" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T352" s="1" t="s">
         <v>36</v>
@@ -15676,7 +15690,7 @@
         <v>35</v>
       </c>
       <c r="Z352" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA352" s="1" t="s">
         <v>35</v>
@@ -15687,10 +15701,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C353" s="1"/>
       <c r="G353" s="1" t="s">
@@ -15700,20 +15714,20 @@
         <v>36</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M353" s="1"/>
       <c r="N353" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O353" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R353" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T353" s="1" t="s">
         <v>36</v>
@@ -15725,7 +15739,7 @@
         <v>35</v>
       </c>
       <c r="Z353" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA353" s="1" t="s">
         <v>35</v>
@@ -15736,10 +15750,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C354" s="1"/>
       <c r="G354" s="1" t="s">
@@ -15749,20 +15763,20 @@
         <v>36</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M354" s="1"/>
       <c r="N354" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O354" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R354" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T354" s="1" t="s">
         <v>36</v>
@@ -15774,7 +15788,7 @@
         <v>35</v>
       </c>
       <c r="Z354" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA354" s="1" t="s">
         <v>35</v>
@@ -15785,10 +15799,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C355" s="1"/>
       <c r="G355" s="1" t="s">
@@ -15798,20 +15812,20 @@
         <v>36</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L355" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M355" s="1"/>
       <c r="N355" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O355" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R355" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T355" s="1" t="s">
         <v>36</v>
@@ -15823,7 +15837,7 @@
         <v>35</v>
       </c>
       <c r="Z355" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA355" s="1" t="s">
         <v>35</v>
@@ -15834,10 +15848,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C356" s="1"/>
       <c r="G356" s="1" t="s">
@@ -15847,20 +15861,20 @@
         <v>36</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M356" s="1"/>
       <c r="N356" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O356" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R356" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T356" s="1" t="s">
         <v>36</v>
@@ -15872,7 +15886,7 @@
         <v>35</v>
       </c>
       <c r="Z356" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA356" s="1" t="s">
         <v>35</v>
@@ -15883,10 +15897,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C357" s="1"/>
       <c r="G357" s="1" t="s">
@@ -15896,20 +15910,20 @@
         <v>36</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M357" s="1"/>
       <c r="N357" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O357" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R357" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T357" s="1" t="s">
         <v>35</v>
@@ -15921,7 +15935,7 @@
         <v>35</v>
       </c>
       <c r="Z357" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA357" s="1" t="s">
         <v>35</v>
@@ -15932,10 +15946,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C358" s="1"/>
       <c r="G358" s="1" t="s">
@@ -15945,20 +15959,20 @@
         <v>36</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L358" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M358" s="1"/>
       <c r="N358" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O358" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R358" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T358" s="1" t="s">
         <v>36</v>
@@ -15970,7 +15984,7 @@
         <v>35</v>
       </c>
       <c r="Z358" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA358" s="1" t="s">
         <v>35</v>
@@ -15981,10 +15995,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C359" s="1"/>
       <c r="G359" s="1" t="s">
@@ -15994,20 +16008,20 @@
         <v>36</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M359" s="1"/>
       <c r="N359" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O359" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R359" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T359" s="1" t="s">
         <v>36</v>
@@ -16019,7 +16033,7 @@
         <v>35</v>
       </c>
       <c r="Z359" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA359" s="1" t="s">
         <v>35</v>
@@ -16030,17 +16044,17 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C360" s="1"/>
       <c r="G360" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N360" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O360" s="1" t="s">
         <v>35</v>
@@ -16063,17 +16077,17 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C361" s="1"/>
       <c r="G361" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N361" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O361" s="1" t="s">
         <v>35</v>
@@ -16096,10 +16110,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C362" s="1"/>
       <c r="G362" s="1" t="s">
